--- a/test_data.xlsx
+++ b/test_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\VSCode\PythonScripts\PLaSK_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barte\Documents\PLaSK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8184E8F8-33EE-4F8F-8523-2C7B84464B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959DB5FB-7528-454E-AC8C-C86A27E5CCAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12600" yWindow="4350" windowWidth="28800" windowHeight="11460" xr2:uid="{037DD58E-209F-45FE-AA97-B0F6F6DB7EE4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{037DD58E-209F-45FE-AA97-B0F6F6DB7EE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -548,16 +548,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6BA3728-50D9-4CB7-A697-41B4F0EB2C7F}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="106" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="12" width="22.85546875" customWidth="1"/>
+    <col min="1" max="12" width="22.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -595,7 +595,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -633,7 +633,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -671,7 +671,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -709,7 +709,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -735,7 +735,7 @@
         <v>3.621</v>
       </c>
       <c r="I5" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J5" s="4">
         <v>1.5</v>
@@ -747,7 +747,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -785,7 +785,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -823,7 +823,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -861,7 +861,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -878,10 +878,10 @@
         <v>1.6E-2</v>
       </c>
       <c r="F9" s="5">
-        <v>0.159</v>
+        <v>5.5899999999999998E-2</v>
       </c>
       <c r="G9" s="5">
-        <v>0.14000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H9" s="4">
         <v>3.621</v>
@@ -899,7 +899,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -937,7 +937,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -975,7 +975,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1372,10 +1372,10 @@
         <v>1.6E-2</v>
       </c>
       <c r="F22" s="5">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G22" s="5">
-        <v>0.18</v>
+        <v>0.08</v>
       </c>
       <c r="H22" s="4">
         <v>3.621</v>
@@ -1393,7 +1393,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>32</v>
       </c>
       <c r="D26" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E26" s="4">
         <v>1.6E-2</v>
@@ -1545,7 +1545,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>31</v>
       </c>
